--- a/data/sa-data.xlsx
+++ b/data/sa-data.xlsx
@@ -130,14 +130,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="K22" activeCellId="0" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -146,7 +146,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -157,52 +157,55 @@
       <c r="A2" s="1" t="n">
         <v>13.5</v>
       </c>
+      <c r="B2" s="1" t="n">
+        <v>11.3004000539398</v>
+      </c>
       <c r="C2" s="1" t="n">
-        <v>4.05581054480124</v>
+        <v>3.67341426814964</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>11.3004000539398</v>
+        <v>8.28873515206892</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>3.67341426814964</v>
+        <v>2.93323288554106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>8.28873515206892</v>
+        <v>4.36657226190984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>2.93323288554106</v>
+        <v>2.649796996368</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>11</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>4.36657226190984</v>
+        <v>-0.946255939701857</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2.649796996368</v>
+        <v>2.55679863164075</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>8.33333333333333</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>-0.946255939701857</v>
+        <v>-2.05565203343963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>2.55679863164075</v>
+        <v>3.15483269356378</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -210,32 +213,32 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>-2.05565203343963</v>
+        <v>-2.02507232401157</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>3.15483269356378</v>
+        <v>4.08801028764603</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>7.66666666666667</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>-2.02507232401157</v>
+        <v>-1.00850546780066</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>4.08801028764603</v>
+        <v>5.21901506519813</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>7.66666666666667</v>
+        <v>7.5</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>-1.00850546780066</v>
+        <v>1.62524295934825</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>5.21901506519813</v>
+        <v>5.73269187874435</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,21 +246,21 @@
         <v>7.5</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>1.62524295934825</v>
+        <v>1.9750948375391</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>5.73269187874435</v>
+        <v>5.21476671608234</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>1.9750948375391</v>
+        <v>1.96030183727036</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>5.21476671608234</v>
+        <v>5.62687419356289</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,10 +268,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>1.96030183727036</v>
+        <v>2.4139765148725</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>5.62687419356289</v>
+        <v>5.34472233772438</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,10 +279,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>2.4139765148725</v>
+        <v>2.10384959713521</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>5.34472233772438</v>
+        <v>4.92957592368</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -287,230 +290,230 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>2.10384959713521</v>
+        <v>2.03792810642518</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>4.92957592368</v>
+        <v>5.69845526204393</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>7</v>
+        <v>7.16666666666667</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>2.03792810642518</v>
+        <v>2.47365457324433</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>5.69845526204393</v>
+        <v>5.30984299290726</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>7.16666666666667</v>
+        <v>7.83333333333333</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>2.47365457324433</v>
+        <v>3.71139786664534</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>5.30984299290726</v>
+        <v>5.32801788463169</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>7.83333333333333</v>
+        <v>8.66666666666667</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>3.71139786664534</v>
+        <v>4.51157785660192</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>5.32801788463169</v>
+        <v>6.07420773561043</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>8.66666666666667</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>4.51157785660192</v>
+        <v>5.08817119080636</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>6.07420773561043</v>
+        <v>5.93551846220883</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>9</v>
+        <v>9.16666666666667</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>5.08817119080636</v>
+        <v>5.93868979864187</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>5.93551846220883</v>
+        <v>5.30797833643197</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>9.16666666666667</v>
+        <v>9.83333333333333</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>5.93868979864187</v>
+        <v>6.17488443759628</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>5.30797833643197</v>
+        <v>5.09067235641285</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>9.83333333333333</v>
+        <v>10.6666666666667</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>6.17488443759628</v>
+        <v>7.11589063036266</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>5.09067235641285</v>
+        <v>5.12599599615737</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>10.6666666666667</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>7.11589063036266</v>
+        <v>8.96233821079049</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>5.12599599615737</v>
+        <v>3.8809356778549</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>11</v>
+        <v>11.6666666666667</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>8.96233821079049</v>
+        <v>9.98760556145191</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>3.8809356778549</v>
+        <v>4.294481353122</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>11.6666666666667</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>9.98760556145191</v>
+        <v>11.0828821997502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>4.294481353122</v>
+        <v>3.33273269058236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>12</v>
+        <v>11.8333333333333</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>11.0828821997502</v>
+        <v>9.73390726318271</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>3.33273269058236</v>
+        <v>1.30903780708862</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>11.8333333333333</v>
+        <v>10.5</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>9.73390726318271</v>
+        <v>8.36522689994535</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>1.30903780708862</v>
+        <v>-0.684149281395552</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>10.5</v>
+        <v>8.16666666666667</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>8.36522689994535</v>
+        <v>7.71687067589146</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>-0.684149281395552</v>
+        <v>-2.21875570393137</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>8.16666666666667</v>
+        <v>7.16666666666667</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>7.71687067589146</v>
+        <v>6.34674922600618</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>-2.21875570393137</v>
+        <v>-2.22565436991863</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>7.16666666666667</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>6.34674922600618</v>
+        <v>6.1506919528447</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>-2.22565436991863</v>
+        <v>-1.01014986652686</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>7</v>
+        <v>6.83333333333333</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>6.1506919528447</v>
+        <v>5.65085771947527</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>-1.01014986652686</v>
+        <v>1.69884569555872</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>6.83333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>5.65085771947527</v>
+        <v>4.54545454545452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>1.69884569555872</v>
+        <v>2.74529182038823</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>6.5</v>
+        <v>6.33333333333333</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>4.54545454545452</v>
+        <v>3.49344978165937</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>2.74529182038823</v>
+        <v>3.64717663433951</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>6.33333333333333</v>
+        <v>5.66666666666667</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>3.49344978165937</v>
+        <v>3.42829550941572</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>3.64717663433951</v>
+        <v>4.06180262889442</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>5.66666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>3.42829550941572</v>
+        <v>3.82043935052529</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>4.06180262889442</v>
+        <v>3.86848686207326</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,10 +521,10 @@
         <v>5.5</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>3.82043935052529</v>
+        <v>4.63137996219281</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>3.86848686207326</v>
+        <v>3.75776946950581</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -529,10 +532,10 @@
         <v>5.5</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>4.63137996219281</v>
+        <v>5.39146741678389</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>3.75776946950581</v>
+        <v>2.92295252765151</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,10 +543,10 @@
         <v>5.5</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>5.39146741678389</v>
+        <v>6.06909430438845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>2.92295252765151</v>
+        <v>2.61033351852185</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,10 +554,10 @@
         <v>5.5</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>6.06909430438845</v>
+        <v>6.07175712971482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>2.61033351852185</v>
+        <v>2.05043611267137</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,21 +565,21 @@
         <v>5.5</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>6.07175712971482</v>
+        <v>5.6910569105691</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>2.05043611267137</v>
+        <v>2.37797100753458</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>5.6910569105691</v>
+        <v>5.11565836298933</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>2.37797100753458</v>
+        <v>2.37885561790199</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>5.11565836298933</v>
+        <v>5.6338028169014</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>2.37885561790199</v>
+        <v>2.04612514352322</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,10 +598,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>5.6338028169014</v>
+        <v>5.72419774501303</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>2.04612514352322</v>
+        <v>2.06090409098247</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,10 +609,10 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>5.72419774501303</v>
+        <v>5.68376068376069</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>2.06090409098247</v>
+        <v>2.22504824955079</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -617,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>5.68376068376069</v>
+        <v>6.22090562843842</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>2.22504824955079</v>
+        <v>2.38818028672603</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,21 +631,21 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>6.22090562843842</v>
+        <v>5.41666666666667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>2.38818028672603</v>
+        <v>3.25773708278321</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>5.41666666666667</v>
+        <v>5.94749794913865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>3.25773708278321</v>
+        <v>2.43047542167796</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,21 +653,21 @@
         <v>5.5</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>5.94749794913865</v>
+        <v>6.46987464617872</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>2.43047542167796</v>
+        <v>1.60358016753954</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>6.46987464617872</v>
+        <v>6.25498007968126</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>1.60358016753954</v>
+        <v>1.78398443336754</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,10 +675,10 @@
         <v>5.75</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>6.25498007968126</v>
+        <v>5.69169960474307</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>1.78398443336754</v>
+        <v>1.58102557149407</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,10 +686,10 @@
         <v>5.75</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>5.69169960474307</v>
+        <v>4.14246999612853</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>1.58102557149407</v>
+        <v>2.41250870286971</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,54 +697,54 @@
         <v>5.75</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>4.14246999612853</v>
+        <v>4.55753892897834</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>2.41250870286971</v>
+        <v>1.55911520660219</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>4.55753892897834</v>
+        <v>4.72440944881889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>1.55911520660219</v>
+        <v>0.905652534642787</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>6</v>
+        <v>6.16666666666667</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>4.72440944881889</v>
+        <v>4.86163051608077</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>0.905652534642787</v>
+        <v>-0.0755168942127127</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>6.16666666666667</v>
+        <v>6.83333333333333</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>4.86163051608077</v>
+        <v>6.50557620817844</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>-0.0755168942127127</v>
+        <v>-0.742872035579867</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>6.83333333333333</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>6.50557620817844</v>
+        <v>6.24772974936434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>-0.742872035579867</v>
+        <v>0.635065404185275</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,10 +752,10 @@
         <v>7</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>6.24772974936434</v>
+        <v>6.01503759398498</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>0.635065404185275</v>
+        <v>0.869767630416107</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,10 +763,10 @@
         <v>7</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>6.01503759398498</v>
+        <v>6.59771754636234</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>0.869767630416107</v>
+        <v>0.840654221021508</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,10 +774,10 @@
         <v>7</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>6.59771754636234</v>
+        <v>6.31762652705061</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>0.840654221021508</v>
+        <v>1.02374094171465</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,21 +785,21 @@
         <v>7</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>6.31762652705061</v>
+        <v>5.2991452991453</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>1.02374094171465</v>
+        <v>0.965735710002535</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>5.2991452991453</v>
+        <v>4.79567713610267</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>0.965735710002535</v>
+        <v>1.43827997583419</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,32 +807,32 @@
         <v>6.75</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>4.79567713610267</v>
+        <v>4.71729675476749</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>1.43827997583419</v>
+        <v>2.22503199044188</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>6.75</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>4.71729675476749</v>
+        <v>4.07091267235717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>2.22503199044188</v>
+        <v>1.59207688481051</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>6.66666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>4.07091267235717</v>
+        <v>4.48051948051946</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>1.59207688481051</v>
+        <v>0.722505414688568</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,32 +840,32 @@
         <v>6.5</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>4.48051948051946</v>
+        <v>4.99516596841767</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>0.722505414688568</v>
+        <v>0.679196403010107</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>6.5</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>4.99516596841767</v>
+        <v>4.92012779552715</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>0.679196403010107</v>
+        <v>0.170418794921456</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>6.66666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>4.92012779552715</v>
+        <v>4.19558359621453</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>0.170418794921456</v>
+        <v>0.0485201358563892</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -870,21 +873,21 @@
         <v>6.75</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>4.19558359621453</v>
+        <v>4.44375388440028</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>0.0485201358563892</v>
+        <v>0.998125320818</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>4.44375388440028</v>
+        <v>4.14364640883975</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>0.998125320818</v>
+        <v>0.136623944576053</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,43 +895,43 @@
         <v>6.5</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>4.14364640883975</v>
+        <v>3.74543239951279</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>0.136623944576053</v>
+        <v>-0.565546422344032</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>6.5</v>
+        <v>5.91666666666667</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>3.74543239951279</v>
+        <v>4.42022403875264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>-0.565546422344032</v>
+        <v>-0.201351783087211</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>5.91666666666667</v>
+        <v>3.91666666666667</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>4.42022403875264</v>
+        <v>2.40999702469504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>-0.201351783087211</v>
+        <v>-17.4682953410858</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>3.91666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>2.40999702469504</v>
+        <v>3.09460654288243</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>-17.4682953410858</v>
+        <v>-5.94011960865721</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,20 +939,9 @@
         <v>3.5</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>3.09460654288243</v>
+        <v>3.16994423246257</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>-5.94011960865721</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="B74" s="1" t="n">
-        <v>3.16994423246257</v>
-      </c>
-      <c r="C74" s="1" t="n">
         <v>-4.24709908901216</v>
       </c>
     </row>

--- a/data/sa-data.xlsx
+++ b/data/sa-data.xlsx
@@ -35,8 +35,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$-809]0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -104,12 +105,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -130,14 +139,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K22" activeCellId="0" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -154,801 +163,802 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>13.5</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>11.3004000539398</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>3.67341426814964</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>8.28873515206892</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>2.93323288554106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>4.36657226190984</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>2.649796996368</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>8.33333333333333</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>-0.946255939701857</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>2.55679863164075</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>-2.05565203343963</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>3.15483269356378</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>-2.02507232401157</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>4.08801028764603</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>7.66666666666667</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>-1.00850546780066</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>5.21901506519813</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>7.5</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>1.62524295934825</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>5.73269187874435</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>7.5</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>1.9750948375391</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>5.21476671608234</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>1.96030183727036</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>5.62687419356289</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>2.4139765148725</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>5.34472233772438</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>2.10384959713521</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>4.92957592368</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>2.03792810642518</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <v>5.69845526204393</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>7.16666666666667</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>2.47365457324433</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>5.30984299290726</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>7.83333333333333</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>3.71139786664534</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2" t="n">
         <v>5.32801788463169</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>8.66666666666667</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>4.51157785660192</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2" t="n">
         <v>6.07420773561043</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>5.08817119080636</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2" t="n">
         <v>5.93551846220883</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>9.16666666666667</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>5.93868979864187</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2" t="n">
         <v>5.30797833643197</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>9.83333333333333</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>6.17488443759628</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2" t="n">
         <v>5.09067235641285</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>10.6666666666667</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>7.11589063036266</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2" t="n">
         <v>5.12599599615737</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>8.96233821079049</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2" t="n">
         <v>3.8809356778549</v>
       </c>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>11.6666666666667</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>9.98760556145191</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2" t="n">
         <v>4.294481353122</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="2" t="n">
         <v>11.0828821997502</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2" t="n">
         <v>3.33273269058236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>11.8333333333333</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>9.73390726318271</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="2" t="n">
         <v>1.30903780708862</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>10.5</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>8.36522689994535</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="2" t="n">
         <v>-0.684149281395552</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>8.16666666666667</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>7.71687067589146</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="2" t="n">
         <v>-2.21875570393137</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>7.16666666666667</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>6.34674922600618</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="2" t="n">
         <v>-2.22565436991863</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>6.1506919528447</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="2" t="n">
         <v>-1.01014986652686</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>6.83333333333333</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>5.65085771947527</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="2" t="n">
         <v>1.69884569555872</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>4.54545454545452</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="2" t="n">
         <v>2.74529182038823</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>6.33333333333333</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="2" t="n">
         <v>3.49344978165937</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="2" t="n">
         <v>3.64717663433951</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>5.66666666666667</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="2" t="n">
         <v>3.42829550941572</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="2" t="n">
         <v>4.06180262889442</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="2" t="n">
         <v>3.82043935052529</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="2" t="n">
         <v>3.86848686207326</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="2" t="n">
         <v>4.63137996219281</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="2" t="n">
         <v>3.75776946950581</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="2" t="n">
         <v>5.39146741678389</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="2" t="n">
         <v>2.92295252765151</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="2" t="n">
         <v>6.06909430438845</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="2" t="n">
         <v>2.61033351852185</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="2" t="n">
         <v>6.07175712971482</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="2" t="n">
         <v>2.05043611267137</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="2" t="n">
         <v>5.6910569105691</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="2" t="n">
         <v>2.37797100753458</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="2" t="n">
         <v>5.11565836298933</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="2" t="n">
         <v>2.37885561790199</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="2" t="n">
         <v>5.6338028169014</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="2" t="n">
         <v>2.04612514352322</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="2" t="n">
         <v>5.72419774501303</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="2" t="n">
         <v>2.06090409098247</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="2" t="n">
         <v>5.68376068376069</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="2" t="n">
         <v>2.22504824955079</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="2" t="n">
         <v>6.22090562843842</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C44" s="2" t="n">
         <v>2.38818028672603</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="2" t="n">
         <v>5.41666666666667</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="2" t="n">
         <v>3.25773708278321</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="2" t="n">
         <v>5.94749794913865</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="2" t="n">
         <v>2.43047542167796</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="2" t="n">
         <v>6.46987464617872</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="2" t="n">
         <v>1.60358016753954</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>5.75</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="2" t="n">
         <v>6.25498007968126</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="2" t="n">
         <v>1.78398443336754</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>5.75</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="2" t="n">
         <v>5.69169960474307</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="2" t="n">
         <v>1.58102557149407</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>5.75</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="2" t="n">
         <v>4.14246999612853</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="2" t="n">
         <v>2.41250870286971</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>5.75</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="2" t="n">
         <v>4.55753892897834</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="C51" s="2" t="n">
         <v>1.55911520660219</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="2" t="n">
         <v>4.72440944881889</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C52" s="2" t="n">
         <v>0.905652534642787</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>6.16666666666667</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="2" t="n">
         <v>4.86163051608077</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="C53" s="2" t="n">
         <v>-0.0755168942127127</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>6.83333333333333</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="2" t="n">
         <v>6.50557620817844</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="C54" s="2" t="n">
         <v>-0.742872035579867</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="2" t="n">
         <v>6.24772974936434</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="C55" s="2" t="n">
         <v>0.635065404185275</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="2" t="n">
         <v>6.01503759398498</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="C56" s="2" t="n">
         <v>0.869767630416107</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="2" t="n">
         <v>6.59771754636234</v>
       </c>
-      <c r="C57" s="1" t="n">
+      <c r="C57" s="2" t="n">
         <v>0.840654221021508</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="2" t="n">
         <v>6.31762652705061</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="C58" s="2" t="n">
         <v>1.02374094171465</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="2" t="n">
         <v>5.2991452991453</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="C59" s="2" t="n">
         <v>0.965735710002535</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>6.75</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="2" t="n">
         <v>4.79567713610267</v>
       </c>
-      <c r="C60" s="1" t="n">
+      <c r="C60" s="2" t="n">
         <v>1.43827997583419</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>6.75</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="2" t="n">
         <v>4.71729675476749</v>
       </c>
-      <c r="C61" s="1" t="n">
+      <c r="C61" s="2" t="n">
         <v>2.22503199044188</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>6.66666666666667</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="2" t="n">
         <v>4.07091267235717</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="C62" s="2" t="n">
         <v>1.59207688481051</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="2" t="n">
         <v>4.48051948051946</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="C63" s="2" t="n">
         <v>0.722505414688568</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="2" t="n">
         <v>4.99516596841767</v>
       </c>
-      <c r="C64" s="1" t="n">
+      <c r="C64" s="2" t="n">
         <v>0.679196403010107</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>6.66666666666667</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="2" t="n">
         <v>4.92012779552715</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="C65" s="2" t="n">
         <v>0.170418794921456</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>6.75</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="2" t="n">
         <v>4.19558359621453</v>
       </c>
-      <c r="C66" s="1" t="n">
+      <c r="C66" s="2" t="n">
         <v>0.0485201358563892</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>6.75</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="2" t="n">
         <v>4.44375388440028</v>
       </c>
-      <c r="C67" s="1" t="n">
+      <c r="C67" s="2" t="n">
         <v>0.998125320818</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="2" t="n">
         <v>4.14364640883975</v>
       </c>
-      <c r="C68" s="1" t="n">
+      <c r="C68" s="2" t="n">
         <v>0.136623944576053</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="2" t="n">
         <v>3.74543239951279</v>
       </c>
-      <c r="C69" s="1" t="n">
+      <c r="C69" s="2" t="n">
         <v>-0.565546422344032</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>5.91666666666667</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="2" t="n">
         <v>4.42022403875264</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="C70" s="2" t="n">
         <v>-0.201351783087211</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>3.91666666666667</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="2" t="n">
         <v>2.40999702469504</v>
       </c>
-      <c r="C71" s="1" t="n">
+      <c r="C71" s="2" t="n">
         <v>-17.4682953410858</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="2" t="n">
         <v>3.09460654288243</v>
       </c>
-      <c r="C72" s="1" t="n">
+      <c r="C72" s="2" t="n">
         <v>-5.94011960865721</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="2" t="n">
         <v>3.16994423246257</v>
       </c>
-      <c r="C73" s="1" t="n">
+      <c r="C73" s="2" t="n">
         <v>-4.24709908901216</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/data/sa-data.xlsx
+++ b/data/sa-data.xlsx
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">repo</t>
-  </si>
-  <si>
     <t xml:space="preserve">inf</t>
   </si>
   <si>
     <t xml:space="preserve">gdp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repo</t>
   </si>
 </sst>
 </file>
@@ -139,17 +139,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -164,795 +167,795 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
+        <v>11.3004000539398</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>3.67341426814964</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>13.5</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>11.3004000539398</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>3.67341426814964</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
+        <v>8.28873515206892</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2.93323288554106</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>13</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>8.28873515206892</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>2.93323288554106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
+        <v>4.36657226190984</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2.649796996368</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>11</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>4.36657226190984</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>2.649796996368</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
+        <v>-0.946255939701857</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>2.55679863164075</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>8.33333333333333</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>-0.946255939701857</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>2.55679863164075</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
+        <v>-2.05565203343963</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>3.15483269356378</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>-2.05565203343963</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>3.15483269356378</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
+        <v>-2.02507232401157</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>4.08801028764603</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>-2.02507232401157</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4.08801028764603</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
+        <v>-1.00850546780066</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>5.21901506519813</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>7.66666666666667</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>-1.00850546780066</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>5.21901506519813</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
+        <v>1.62524295934825</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>5.73269187874435</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>7.5</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>1.62524295934825</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>5.73269187874435</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
+        <v>1.9750948375391</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>5.21476671608234</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>7.5</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>1.9750948375391</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>5.21476671608234</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
+        <v>1.96030183727036</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>5.62687419356289</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>1.96030183727036</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>5.62687419356289</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
+        <v>2.4139765148725</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>5.34472233772438</v>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>2.4139765148725</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>5.34472233772438</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
+        <v>2.10384959713521</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>4.92957592368</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>2.10384959713521</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>4.92957592368</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
+        <v>2.03792810642518</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>5.69845526204393</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>2.03792810642518</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>5.69845526204393</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
+        <v>2.47365457324433</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>5.30984299290726</v>
+      </c>
+      <c r="C15" s="2" t="n">
         <v>7.16666666666667</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>2.47365457324433</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>5.30984299290726</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
+        <v>3.71139786664534</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>5.32801788463169</v>
+      </c>
+      <c r="C16" s="2" t="n">
         <v>7.83333333333333</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>3.71139786664534</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>5.32801788463169</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
+        <v>4.51157785660192</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>6.07420773561043</v>
+      </c>
+      <c r="C17" s="2" t="n">
         <v>8.66666666666667</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>4.51157785660192</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>6.07420773561043</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
+        <v>5.08817119080636</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>5.93551846220883</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>5.08817119080636</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>5.93551846220883</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
+        <v>5.93868979864187</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>5.30797833643197</v>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>9.16666666666667</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>5.93868979864187</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>5.30797833643197</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
+        <v>6.17488443759628</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>5.09067235641285</v>
+      </c>
+      <c r="C20" s="2" t="n">
         <v>9.83333333333333</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>6.17488443759628</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>5.09067235641285</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
+        <v>7.11589063036266</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>5.12599599615737</v>
+      </c>
+      <c r="C21" s="2" t="n">
         <v>10.6666666666667</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>7.11589063036266</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>5.12599599615737</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
+        <v>8.96233821079049</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>3.8809356778549</v>
+      </c>
+      <c r="C22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>8.96233821079049</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>3.8809356778549</v>
-      </c>
-      <c r="K22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
+        <v>9.98760556145191</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>4.294481353122</v>
+      </c>
+      <c r="C23" s="2" t="n">
         <v>11.6666666666667</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>9.98760556145191</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>4.294481353122</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
+        <v>11.0828821997502</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>3.33273269058236</v>
+      </c>
+      <c r="C24" s="2" t="n">
         <v>12</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>11.0828821997502</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>3.33273269058236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
+        <v>9.73390726318271</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>1.30903780708862</v>
+      </c>
+      <c r="C25" s="2" t="n">
         <v>11.8333333333333</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>9.73390726318271</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>1.30903780708862</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
+        <v>8.36522689994535</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>-0.684149281395552</v>
+      </c>
+      <c r="C26" s="2" t="n">
         <v>10.5</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>8.36522689994535</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>-0.684149281395552</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
+        <v>7.71687067589146</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>-2.21875570393137</v>
+      </c>
+      <c r="C27" s="2" t="n">
         <v>8.16666666666667</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>7.71687067589146</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>-2.21875570393137</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
+        <v>6.34674922600618</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>-2.22565436991863</v>
+      </c>
+      <c r="C28" s="2" t="n">
         <v>7.16666666666667</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>6.34674922600618</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>-2.22565436991863</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
+        <v>6.1506919528447</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>-1.01014986652686</v>
+      </c>
+      <c r="C29" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>6.1506919528447</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>-1.01014986652686</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
+        <v>5.65085771947527</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>1.69884569555872</v>
+      </c>
+      <c r="C30" s="2" t="n">
         <v>6.83333333333333</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>5.65085771947527</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>1.69884569555872</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
+        <v>4.54545454545452</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>2.74529182038823</v>
+      </c>
+      <c r="C31" s="2" t="n">
         <v>6.5</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>4.54545454545452</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>2.74529182038823</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
+        <v>3.49344978165937</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>3.64717663433951</v>
+      </c>
+      <c r="C32" s="2" t="n">
         <v>6.33333333333333</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>3.49344978165937</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>3.64717663433951</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
+        <v>3.42829550941572</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>4.06180262889442</v>
+      </c>
+      <c r="C33" s="2" t="n">
         <v>5.66666666666667</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>3.42829550941572</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>4.06180262889442</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
+        <v>3.82043935052529</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>3.86848686207326</v>
+      </c>
+      <c r="C34" s="2" t="n">
         <v>5.5</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>3.82043935052529</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>3.86848686207326</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
+        <v>4.63137996219281</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>3.75776946950581</v>
+      </c>
+      <c r="C35" s="2" t="n">
         <v>5.5</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>4.63137996219281</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>3.75776946950581</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
+        <v>5.39146741678389</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>2.92295252765151</v>
+      </c>
+      <c r="C36" s="2" t="n">
         <v>5.5</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>5.39146741678389</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>2.92295252765151</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
+        <v>6.06909430438845</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>2.61033351852185</v>
+      </c>
+      <c r="C37" s="2" t="n">
         <v>5.5</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>6.06909430438845</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>2.61033351852185</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
+        <v>6.07175712971482</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>2.05043611267137</v>
+      </c>
+      <c r="C38" s="2" t="n">
         <v>5.5</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>6.07175712971482</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>2.05043611267137</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
+        <v>5.6910569105691</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>2.37797100753458</v>
+      </c>
+      <c r="C39" s="2" t="n">
         <v>5.5</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>5.6910569105691</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>2.37797100753458</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
+        <v>5.11565836298933</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>2.37885561790199</v>
+      </c>
+      <c r="C40" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>5.11565836298933</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>2.37885561790199</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
+        <v>5.6338028169014</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>2.04612514352322</v>
+      </c>
+      <c r="C41" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>5.6338028169014</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>2.04612514352322</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
+        <v>5.72419774501303</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>2.06090409098247</v>
+      </c>
+      <c r="C42" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>5.72419774501303</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>2.06090409098247</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
+        <v>5.68376068376069</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>2.22504824955079</v>
+      </c>
+      <c r="C43" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>5.68376068376069</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>2.22504824955079</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
+        <v>6.22090562843842</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>2.38818028672603</v>
+      </c>
+      <c r="C44" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>6.22090562843842</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>2.38818028672603</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
+        <v>5.41666666666667</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>3.25773708278321</v>
+      </c>
+      <c r="C45" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>5.41666666666667</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>3.25773708278321</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
+        <v>5.94749794913865</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>2.43047542167796</v>
+      </c>
+      <c r="C46" s="2" t="n">
         <v>5.5</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>5.94749794913865</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>2.43047542167796</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
+        <v>6.46987464617872</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>1.60358016753954</v>
+      </c>
+      <c r="C47" s="2" t="n">
         <v>5.5</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>6.46987464617872</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>1.60358016753954</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
+        <v>6.25498007968126</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>1.78398443336754</v>
+      </c>
+      <c r="C48" s="2" t="n">
         <v>5.75</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>6.25498007968126</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>1.78398443336754</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
+        <v>5.69169960474307</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>1.58102557149407</v>
+      </c>
+      <c r="C49" s="2" t="n">
         <v>5.75</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>5.69169960474307</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>1.58102557149407</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
+        <v>4.14246999612853</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>2.41250870286971</v>
+      </c>
+      <c r="C50" s="2" t="n">
         <v>5.75</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>4.14246999612853</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>2.41250870286971</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
+        <v>4.55753892897834</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>1.55911520660219</v>
+      </c>
+      <c r="C51" s="2" t="n">
         <v>5.75</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>4.55753892897834</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>1.55911520660219</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
+        <v>4.72440944881889</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>0.905652534642787</v>
+      </c>
+      <c r="C52" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>4.72440944881889</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>0.905652534642787</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
+        <v>4.86163051608077</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>-0.0755168942127127</v>
+      </c>
+      <c r="C53" s="2" t="n">
         <v>6.16666666666667</v>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>4.86163051608077</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>-0.0755168942127127</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
+        <v>6.50557620817844</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>-0.742872035579867</v>
+      </c>
+      <c r="C54" s="2" t="n">
         <v>6.83333333333333</v>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>6.50557620817844</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>-0.742872035579867</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
+        <v>6.24772974936434</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>0.635065404185275</v>
+      </c>
+      <c r="C55" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>6.24772974936434</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>0.635065404185275</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
+        <v>6.01503759398498</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>0.869767630416107</v>
+      </c>
+      <c r="C56" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>6.01503759398498</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>0.869767630416107</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
+        <v>6.59771754636234</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>0.840654221021508</v>
+      </c>
+      <c r="C57" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>6.59771754636234</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>0.840654221021508</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
+        <v>6.31762652705061</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>1.02374094171465</v>
+      </c>
+      <c r="C58" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>6.31762652705061</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>1.02374094171465</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
+        <v>5.2991452991453</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>0.965735710002535</v>
+      </c>
+      <c r="C59" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>5.2991452991453</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>0.965735710002535</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
+        <v>4.79567713610267</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>1.43827997583419</v>
+      </c>
+      <c r="C60" s="2" t="n">
         <v>6.75</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>4.79567713610267</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>1.43827997583419</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
+        <v>4.71729675476749</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>2.22503199044188</v>
+      </c>
+      <c r="C61" s="2" t="n">
         <v>6.75</v>
-      </c>
-      <c r="B61" s="2" t="n">
-        <v>4.71729675476749</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>2.22503199044188</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
+        <v>4.07091267235717</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>1.59207688481051</v>
+      </c>
+      <c r="C62" s="2" t="n">
         <v>6.66666666666667</v>
-      </c>
-      <c r="B62" s="2" t="n">
-        <v>4.07091267235717</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>1.59207688481051</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
+        <v>4.48051948051946</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>0.722505414688568</v>
+      </c>
+      <c r="C63" s="2" t="n">
         <v>6.5</v>
-      </c>
-      <c r="B63" s="2" t="n">
-        <v>4.48051948051946</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>0.722505414688568</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
+        <v>4.99516596841767</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>0.679196403010107</v>
+      </c>
+      <c r="C64" s="2" t="n">
         <v>6.5</v>
-      </c>
-      <c r="B64" s="2" t="n">
-        <v>4.99516596841767</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>0.679196403010107</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
+        <v>4.92012779552715</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>0.170418794921456</v>
+      </c>
+      <c r="C65" s="2" t="n">
         <v>6.66666666666667</v>
-      </c>
-      <c r="B65" s="2" t="n">
-        <v>4.92012779552715</v>
-      </c>
-      <c r="C65" s="2" t="n">
-        <v>0.170418794921456</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
+        <v>4.19558359621453</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>0.0485201358563892</v>
+      </c>
+      <c r="C66" s="2" t="n">
         <v>6.75</v>
-      </c>
-      <c r="B66" s="2" t="n">
-        <v>4.19558359621453</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>0.0485201358563892</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
+        <v>4.44375388440028</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>0.998125320818</v>
+      </c>
+      <c r="C67" s="2" t="n">
         <v>6.75</v>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>4.44375388440028</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>0.998125320818</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
+        <v>4.14364640883975</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>0.136623944576053</v>
+      </c>
+      <c r="C68" s="2" t="n">
         <v>6.5</v>
-      </c>
-      <c r="B68" s="2" t="n">
-        <v>4.14364640883975</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>0.136623944576053</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
+        <v>3.74543239951279</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>-0.565546422344032</v>
+      </c>
+      <c r="C69" s="2" t="n">
         <v>6.5</v>
-      </c>
-      <c r="B69" s="2" t="n">
-        <v>3.74543239951279</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>-0.565546422344032</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
+        <v>4.42022403875264</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>-0.201351783087211</v>
+      </c>
+      <c r="C70" s="2" t="n">
         <v>5.91666666666667</v>
-      </c>
-      <c r="B70" s="2" t="n">
-        <v>4.42022403875264</v>
-      </c>
-      <c r="C70" s="2" t="n">
-        <v>-0.201351783087211</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
+        <v>2.40999702469504</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>-17.4682953410858</v>
+      </c>
+      <c r="C71" s="2" t="n">
         <v>3.91666666666667</v>
-      </c>
-      <c r="B71" s="2" t="n">
-        <v>2.40999702469504</v>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>-17.4682953410858</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
+        <v>3.09460654288243</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>-5.94011960865721</v>
+      </c>
+      <c r="C72" s="2" t="n">
         <v>3.5</v>
-      </c>
-      <c r="B72" s="2" t="n">
-        <v>3.09460654288243</v>
-      </c>
-      <c r="C72" s="2" t="n">
-        <v>-5.94011960865721</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
+        <v>3.16994423246257</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>-4.24709908901216</v>
+      </c>
+      <c r="C73" s="2" t="n">
         <v>3.5</v>
-      </c>
-      <c r="B73" s="2" t="n">
-        <v>3.16994423246257</v>
-      </c>
-      <c r="C73" s="2" t="n">
-        <v>-4.24709908901216</v>
       </c>
     </row>
   </sheetData>
